--- a/locales_get_unconverted_fields/vi-VN.xlsx
+++ b/locales_get_unconverted_fields/vi-VN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,104 +436,174 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>vip_rule_5</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>keep_level_desc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>check_card_account_pls</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>check_card_account_pls_brl</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_default_addr_brl</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>go_card_pack</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>please_go_package_bind_payment_information</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>not_payment_information_currency</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>back_to_home</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>maintain_time</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>sports_under_maintain</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>to</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>no_withdraw_information_about_the_currency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>please_go_card_wallet_bind_withdraw_information</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>go_card_wallet</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>all_data_all_currencies</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>top_bar_drop_down_search_currency</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>在晋级或降级后90天内满足保级要求（即打码都满足条件），即可保留当前VIP等级。如果90天内无法满足打码需求，则会降低一级VIP等级</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>保级标准</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>请认真核对卡号，卡号错误资金将无法到账</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>请认真核对账户，卡号错误资金将无法到账</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>是否设为默认账户</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>前往卡包</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>请前往卡包绑定收款信息</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>该币种您暂无收款信息</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>回到主页</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>维护时间</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>体育场馆维护中...</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>至</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>该币种您暂无收款信息</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>请前往卡包绑定收款信息</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>前往卡包</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>全部币种</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>搜索货币</t>
         </is>
       </c>
     </row>
